--- a/src/main/resources/TestData/ApiTestData/TestData.xlsx
+++ b/src/main/resources/TestData/ApiTestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -144,27 +144,20 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>ProductSelectionTest</t>
-  </si>
-  <si>
-    <t>signInTest</t>
-  </si>
-  <si>
-    <t>BrowserTest</t>
-  </si>
-  <si>
-    <t>Product1Test</t>
-  </si>
-  <si>
-    <t>accountButtonVerification</t>
+    <t>SpreeApiTest</t>
+  </si>
+  <si>
+    <t>chqconnectiontest</t>
+  </si>
+  <si>
+    <t>chqImage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -207,13 +200,6 @@
       <b/>
       <sz val="14"/>
       <color theme="3" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -397,7 +383,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -456,9 +442,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1351,25 +1334,25 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="17.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.6640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.33203125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="36.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.83203125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="29.1640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="26.33203125" collapsed="true"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.83203125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.1640625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20" customHeight="1">
@@ -1717,9 +1700,7 @@
       <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" ht="20" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>44</v>
-      </c>
+      <c r="A9" s="16"/>
       <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1759,9 +1740,7 @@
       <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>45</v>
-      </c>
+      <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>

--- a/src/main/resources/TestData/ApiTestData/TestData.xlsx
+++ b/src/main/resources/TestData/ApiTestData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>LoginTest</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>akm</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>SmokeTest</t>
   </si>
   <si>
-    <t>firefox</t>
-  </si>
-  <si>
     <t>RegistrationTest</t>
   </si>
   <si>
@@ -151,13 +145,16 @@
   </si>
   <si>
     <t>chqImage</t>
+  </si>
+  <si>
+    <t>RemoteIE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,13 +200,25 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFDCE6F1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -383,7 +392,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -442,6 +451,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1334,7 +1346,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1401,7 +1413,7 @@
     </row>
     <row r="2" spans="1:14" ht="20" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>24</v>
@@ -1409,11 +1421,11 @@
       <c r="C2" s="6">
         <v>718756</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
+      <c r="D2" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>18</v>
@@ -1440,12 +1452,12 @@
         <v>24</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>24</v>
@@ -1453,11 +1465,11 @@
       <c r="C3" s="6">
         <v>718756</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>18</v>
@@ -1484,7 +1496,7 @@
         <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1">
@@ -1497,26 +1509,26 @@
       <c r="C4" s="6">
         <v>718756</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>27</v>
+      <c r="D4" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>21</v>
@@ -1531,7 +1543,7 @@
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>24</v>
@@ -1539,26 +1551,26 @@
       <c r="C5" s="6">
         <v>718756</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>34</v>
+      <c r="D5" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>21</v>
@@ -1570,12 +1582,12 @@
         <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>24</v>
@@ -1583,26 +1595,26 @@
       <c r="C6" s="6">
         <v>718756</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
+      <c r="D6" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>21</v>
@@ -1617,7 +1629,7 @@
     </row>
     <row r="7" spans="1:14" ht="20" customHeight="1">
       <c r="A7" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>24</v>
@@ -1625,26 +1637,26 @@
       <c r="C7" s="6">
         <v>718756</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>34</v>
+      <c r="D7" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>21</v>
@@ -1659,7 +1671,7 @@
     </row>
     <row r="8" spans="1:14" ht="20" customHeight="1">
       <c r="A8" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>24</v>
@@ -1667,26 +1679,26 @@
       <c r="C8" s="6">
         <v>718756</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>34</v>
+      <c r="D8" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>21</v>
@@ -1707,26 +1719,26 @@
       <c r="C9" s="6">
         <v>718756</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
+      <c r="D9" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>21</v>
@@ -1747,26 +1759,26 @@
       <c r="C10" s="6">
         <v>718756</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
+      <c r="D10" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>21</v>
@@ -2290,7 +2302,7 @@
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
       <c r="N42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData/ApiTestData/TestData.xlsx
+++ b/src/main/resources/TestData/ApiTestData/TestData.xlsx
@@ -392,7 +392,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -454,6 +454,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1346,7 +1349,7 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1421,7 +1424,7 @@
       <c r="C2" s="6">
         <v>718756</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1465,7 +1468,7 @@
       <c r="C3" s="6">
         <v>718756</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
